--- a/hw1/Ass-1 Tables with Answers.xlsx
+++ b/hw1/Ass-1 Tables with Answers.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623DF0EE-EDAB-493B-8D80-7CFFC4BF559D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2325" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
     <sheet name="Q2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>AAA</t>
   </si>
@@ -160,22 +168,19 @@
   <si>
     <t>מיכאל גורלניק</t>
   </si>
-  <si>
-    <t>034774920</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -502,7 +507,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
@@ -537,7 +542,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -588,13 +593,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -618,34 +623,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,7 +659,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,25 +680,25 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,6 +853,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -883,6 +905,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1058,11 +1097,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,9 +1541,7 @@
       <c r="G12" s="68"/>
       <c r="H12" s="68"/>
       <c r="I12" s="69"/>
-      <c r="O12" s="52" t="s">
-        <v>36</v>
-      </c>
+      <c r="O12" s="52"/>
       <c r="P12" s="53" t="s">
         <v>34</v>
       </c>
@@ -1518,9 +1555,7 @@
       <c r="G13" s="71"/>
       <c r="H13" s="71"/>
       <c r="I13" s="72"/>
-      <c r="O13" s="53">
-        <v>306555822</v>
-      </c>
+      <c r="O13" s="53"/>
       <c r="P13" s="53" t="s">
         <v>35</v>
       </c>
@@ -1804,18 +1839,15 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="O12" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:N32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,9 +1869,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F1" s="52" t="s">
-        <v>36</v>
-      </c>
+      <c r="F1" s="52"/>
       <c r="G1" s="53" t="s">
         <v>34</v>
       </c>
@@ -2427,20 +2457,5 @@
     <mergeCell ref="B26:N32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F1" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>